--- a/Excel/Form(1).xlsx
+++ b/Excel/Form(1).xlsx
@@ -115,13 +115,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -133,22 +133,16 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
       <c r="B2" t="n">
         <v>2020.0</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
       <c r="D2" t="n">
         <v>1.0</v>
       </c>
@@ -157,24 +151,15 @@
       </c>
       <c r="F2" t="n">
         <v>1.0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
       </c>
       <c r="H2" t="n">
         <v>320.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
       <c r="B3" t="n">
         <v>2005.0</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
       <c r="D3" t="n">
         <v>1.0</v>
       </c>
@@ -183,24 +168,15 @@
       </c>
       <c r="F3" t="n">
         <v>2.0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
       </c>
       <c r="H3" t="n">
         <v>322.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
       <c r="B4" t="n">
         <v>2013.0</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
       <c r="D4" t="n">
         <v>2.0</v>
       </c>
@@ -209,24 +185,15 @@
       </c>
       <c r="F4" t="n">
         <v>6.0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
       </c>
       <c r="H4" t="n">
         <v>345.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
       <c r="B5" t="n">
         <v>2006.0</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
       <c r="D5" t="n">
         <v>4.0</v>
       </c>
@@ -236,23 +203,14 @@
       <c r="F5" t="n">
         <v>2.0</v>
       </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
       <c r="H5" t="n">
         <v>368.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
       <c r="B6" t="n">
         <v>2006.0</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
       <c r="D6" t="n">
         <v>5.0</v>
       </c>
@@ -262,23 +220,14 @@
       <c r="F6" t="n">
         <v>2.0</v>
       </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
       <c r="H6" t="n">
         <v>383.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
       <c r="B7" t="n">
         <v>2012.0</v>
       </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
       <c r="D7" t="n">
         <v>5.0</v>
       </c>
@@ -288,23 +237,14 @@
       <c r="F7" t="n">
         <v>5.0</v>
       </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
       <c r="H7" t="n">
         <v>389.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
       <c r="B8" t="n">
         <v>2014.0</v>
       </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
       <c r="D8" t="n">
         <v>6.0</v>
       </c>
@@ -313,24 +253,15 @@
       </c>
       <c r="F8" t="n">
         <v>6.0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
       </c>
       <c r="H8" t="n">
         <v>406.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
       <c r="B9" t="n">
         <v>2016.0</v>
       </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
       <c r="D9" t="n">
         <v>6.0</v>
       </c>
@@ -339,9 +270,6 @@
       </c>
       <c r="F9" t="n">
         <v>7.0</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
       </c>
       <c r="H9" t="n">
         <v>423.0</v>

--- a/Excel/Form(1).xlsx
+++ b/Excel/Form(1).xlsx
@@ -12,29 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>AssociationName</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Aisle</t>
-  </si>
-  <si>
-    <t>Row</t>
-  </si>
-  <si>
-    <t>Column</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -83,30 +61,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2"/>
+    <row r="1"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
